--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T05:17:43+00:00</t>
+    <t>2021-10-20T05:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T05:25:12+00:00</t>
+    <t>2021-10-20T19:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:39:21+00:00</t>
+    <t>2021-10-20T19:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:41:28+00:00</t>
+    <t>2021-10-20T19:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T19:53:48+00:00</t>
+    <t>2021-10-21T22:21:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T22:21:25+00:00</t>
+    <t>2021-10-22T16:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-22T16:49:58+00:00</t>
+    <t>2021-10-26T17:35:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T17:35:26+00:00</t>
+    <t>2021-10-26T20:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="195">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T20:20:15+00:00</t>
+    <t>2021-10-27T20:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -320,6 +320,19 @@
   </si>
   <si>
     <t>A code that represents the validation status of the address</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-source-extension}
+</t>
+  </si>
+  <si>
+    <t>BC source</t>
+  </si>
+  <si>
+    <t>The elements source. I.e. who create/updated this element.</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -886,7 +899,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1497,9 +1510,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>70</v>
       </c>
@@ -1514,26 +1529,22 @@
         <v>70</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
         <v>70</v>
       </c>
@@ -1545,7 +1556,7 @@
         <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s" s="2">
         <v>70</v>
@@ -1557,13 +1568,13 @@
         <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>70</v>
@@ -1581,28 +1592,28 @@
         <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>70</v>
@@ -1610,7 +1621,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1627,24 +1638,26 @@
         <v>70</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O7" t="s" s="2">
         <v>70</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>70</v>
@@ -1668,13 +1681,13 @@
         <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>70</v>
@@ -1692,7 +1705,7 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>71</v>
@@ -1707,21 +1720,21 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1741,23 +1754,21 @@
         <v>70</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>70</v>
       </c>
@@ -1769,7 +1780,7 @@
         <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="T8" t="s" s="2">
         <v>70</v>
@@ -1781,13 +1792,13 @@
         <v>70</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>70</v>
@@ -1805,7 +1816,7 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>71</v>
@@ -1820,21 +1831,21 @@
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1845,7 +1856,7 @@
         <v>71</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>70</v>
@@ -1854,19 +1865,23 @@
         <v>70</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O9" t="s" s="2">
         <v>70</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>70</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>70</v>
@@ -1914,13 +1929,13 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>70</v>
@@ -1929,32 +1944,32 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>70</v>
@@ -1963,16 +1978,16 @@
         <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1987,7 +2002,7 @@
         <v>70</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>70</v>
@@ -2023,13 +2038,13 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>70</v>
@@ -2038,25 +2053,25 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2072,20 +2087,18 @@
         <v>70</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>70</v>
@@ -2098,7 +2111,7 @@
         <v>70</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>70</v>
@@ -2134,7 +2147,7 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>71</v>
@@ -2149,25 +2162,25 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2183,18 +2196,20 @@
         <v>70</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>70</v>
@@ -2207,7 +2222,7 @@
         <v>70</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>70</v>
@@ -2243,7 +2258,7 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>71</v>
@@ -2258,25 +2273,25 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2292,16 +2307,16 @@
         <v>70</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2316,7 +2331,7 @@
         <v>70</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>70</v>
@@ -2352,7 +2367,7 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
@@ -2367,25 +2382,25 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2401,20 +2416,18 @@
         <v>70</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>70</v>
@@ -2427,7 +2440,7 @@
         <v>70</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>70</v>
@@ -2463,7 +2476,7 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
@@ -2478,21 +2491,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2512,21 +2525,21 @@
         <v>70</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>70</v>
       </c>
@@ -2538,7 +2551,7 @@
         <v>70</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>70</v>
@@ -2574,7 +2587,7 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>71</v>
@@ -2589,15 +2602,126 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="O16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:25:30+00:00</t>
+    <t>2021-10-28T17:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="193">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir.org/moh-hcim/StructureDefinition/bc-client-registry-address</t>
+    <t>http://moh.fhir/bc-client/StructureDefinition/bc-client-registry-address</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-28T17:05:20+00:00</t>
+    <t>2021-11-05T15:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,14 +282,21 @@
     <t>Address.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -312,7 +319,7 @@
     <t>addressValidationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-address-validation-status}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-address-validation-status}
 </t>
   </si>
   <si>
@@ -320,19 +327,6 @@
   </si>
   <si>
     <t>A code that represents the validation status of the address</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-source-extension}
-</t>
-  </si>
-  <si>
-    <t>BC source</t>
-  </si>
-  <si>
-    <t>The elements source. I.e. who create/updated this element.</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -899,7 +893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -910,7 +904,7 @@
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.32421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.57421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1294,11 +1288,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>72</v>
@@ -1313,15 +1307,17 @@
         <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>70</v>
@@ -1358,19 +1354,19 @@
         <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>71</v>
@@ -1382,13 +1378,13 @@
         <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>70</v>
@@ -1402,14 +1398,14 @@
         <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>81</v>
@@ -1424,13 +1420,13 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1481,7 +1477,7 @@
         <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>71</v>
@@ -1493,7 +1489,7 @@
         <v>70</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>70</v>
@@ -1510,11 +1506,9 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>70</v>
       </c>
@@ -1529,22 +1523,26 @@
         <v>70</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O6" t="s" s="2">
         <v>70</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="T6" t="s" s="2">
         <v>70</v>
@@ -1568,13 +1566,13 @@
         <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>70</v>
@@ -1592,28 +1590,28 @@
         <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>70</v>
@@ -1621,7 +1619,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1638,26 +1636,24 @@
         <v>70</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>70</v>
       </c>
@@ -1669,7 +1665,7 @@
         <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>70</v>
@@ -1681,13 +1677,13 @@
         <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>70</v>
@@ -1705,7 +1701,7 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>71</v>
@@ -1720,21 +1716,21 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1754,21 +1750,23 @@
         <v>70</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O8" t="s" s="2">
         <v>70</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="T8" t="s" s="2">
         <v>70</v>
@@ -1792,13 +1790,13 @@
         <v>70</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>70</v>
@@ -1816,7 +1814,7 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>71</v>
@@ -1831,21 +1829,21 @@
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1856,7 +1854,7 @@
         <v>71</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>70</v>
@@ -1865,23 +1863,19 @@
         <v>70</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>70</v>
       </c>
@@ -1893,7 +1887,7 @@
         <v>70</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>70</v>
@@ -1929,13 +1923,13 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>70</v>
@@ -1944,32 +1938,32 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>70</v>
@@ -1978,16 +1972,16 @@
         <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2002,7 +1996,7 @@
         <v>70</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>70</v>
@@ -2038,13 +2032,13 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>70</v>
@@ -2053,25 +2047,25 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2087,18 +2081,20 @@
         <v>70</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>70</v>
@@ -2111,7 +2107,7 @@
         <v>70</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>70</v>
@@ -2147,7 +2143,7 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>71</v>
@@ -2162,25 +2158,25 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2196,20 +2192,18 @@
         <v>70</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>70</v>
@@ -2222,7 +2216,7 @@
         <v>70</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>70</v>
@@ -2258,7 +2252,7 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>71</v>
@@ -2273,25 +2267,25 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2307,16 +2301,16 @@
         <v>70</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2331,7 +2325,7 @@
         <v>70</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>70</v>
@@ -2367,7 +2361,7 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
@@ -2382,25 +2376,25 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2416,18 +2410,20 @@
         <v>70</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>70</v>
@@ -2440,7 +2436,7 @@
         <v>70</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>70</v>
@@ -2476,7 +2472,7 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
@@ -2491,21 +2487,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2525,21 +2521,21 @@
         <v>70</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>70</v>
       </c>
@@ -2551,7 +2547,7 @@
         <v>70</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>70</v>
@@ -2587,7 +2583,7 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>71</v>
@@ -2602,126 +2598,15 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM16" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-client/StructureDefinition/bc-client-registry-address</t>
+    <t>http://moh.fhir/bc-clientregistry/StructureDefinition/bc-client-registry-address</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-05T15:02:58+00:00</t>
+    <t>2021-11-08T22:48:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,7 +319,7 @@
     <t>addressValidationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir/bc-client/StructureDefinition/bc-address-validation-status}
+    <t xml:space="preserve">Extension {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-address-validation-status-extension}
 </t>
   </si>
   <si>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="191">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T22:48:39+00:00</t>
+    <t>2021-11-10T00:01:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -357,10 +357,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-address-use-value-set</t>
   </si>
   <si>
     <t>XAD.7</t>
@@ -387,10 +384,7 @@
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-address-type-value-set</t>
   </si>
   <si>
     <t>XAD.18</t>
@@ -925,8 +919,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="39.66015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.32421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1568,11 +1562,9 @@
       <c r="W6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="X6" s="2"/>
+      <c r="Y6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>70</v>
@@ -1605,13 +1597,13 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AK6" t="s" s="2">
+      <c r="AL6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>70</v>
@@ -1619,7 +1611,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1645,13 +1637,13 @@
         <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1665,7 +1657,7 @@
         <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>70</v>
@@ -1679,11 +1671,9 @@
       <c r="W7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X7" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>70</v>
@@ -1701,7 +1691,7 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>71</v>
@@ -1716,21 +1706,21 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1756,16 +1746,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>70</v>
@@ -1778,7 +1768,7 @@
         <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T8" t="s" s="2">
         <v>70</v>
@@ -1814,7 +1804,7 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>71</v>
@@ -1829,21 +1819,21 @@
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1869,10 +1859,10 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1887,7 +1877,7 @@
         <v>70</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>70</v>
@@ -1923,7 +1913,7 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>71</v>
@@ -1938,25 +1928,25 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AK9" t="s" s="2">
+      <c r="AM9" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1978,10 +1968,10 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1996,7 +1986,7 @@
         <v>70</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>70</v>
@@ -2032,7 +2022,7 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
@@ -2047,25 +2037,25 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AK10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2087,13 +2077,13 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2107,7 +2097,7 @@
         <v>70</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>70</v>
@@ -2143,7 +2133,7 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>71</v>
@@ -2158,10 +2148,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>70</v>
@@ -2172,11 +2162,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2198,10 +2188,10 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2252,7 +2242,7 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>71</v>
@@ -2267,25 +2257,25 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2307,10 +2297,10 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2325,7 +2315,7 @@
         <v>70</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>70</v>
@@ -2361,7 +2351,7 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
@@ -2376,21 +2366,21 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2416,13 +2406,13 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2472,7 +2462,7 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
@@ -2487,21 +2477,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2524,17 +2514,17 @@
         <v>103</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>70</v>
@@ -2547,7 +2537,7 @@
         <v>70</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>70</v>
@@ -2583,7 +2573,7 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>71</v>
@@ -2598,13 +2588,13 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>70</v>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T00:01:37+00:00</t>
+    <t>2021-11-10T17:08:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:08:38+00:00</t>
+    <t>2021-11-10T17:51:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:51:54+00:00</t>
+    <t>2021-11-10T18:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-clientregistry/StructureDefinition/bc-client-registry-address</t>
+    <t>http://hl7.org/fhir/ca-bc/client/StructureDefinition/bc-client-registry-address</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,10 +54,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T18:31:12+00:00</t>
+    <t>2021-11-17T18:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>BC Ministry of Health</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -319,7 +328,7 @@
     <t>addressValidationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-address-validation-status-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/client/StructureDefinition/bc-address-validation-status-extension}
 </t>
   </si>
   <si>
@@ -357,7 +366,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-address-use-value-set</t>
+    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-address-use-value-set</t>
   </si>
   <si>
     <t>XAD.7</t>
@@ -384,7 +393,7 @@
     <t>both</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-address-type-value-set</t>
+    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-address-type-value-set</t>
   </si>
   <si>
     <t>XAD.18</t>
@@ -736,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -810,74 +819,84 @@
       <c r="A9" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +939,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.32421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -939,1665 +958,1665 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="T9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/client/StructureDefinition/bc-client-registry-address</t>
+    <t>http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-client-registry-address</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T18:19:53+00:00</t>
+    <t>2021-11-17T21:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
   <si>
     <t>Description</t>
@@ -328,7 +334,7 @@
     <t>addressValidationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/client/StructureDefinition/bc-address-validation-status-extension}
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-address-validation-status-extension}
 </t>
   </si>
   <si>
@@ -366,7 +372,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-address-use-value-set</t>
+    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-address-use-value-set</t>
   </si>
   <si>
     <t>XAD.7</t>
@@ -393,7 +399,7 @@
     <t>both</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-address-type-value-set</t>
+    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-address-type-value-set</t>
   </si>
   <si>
     <t>XAD.18</t>
@@ -745,7 +751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -843,21 +849,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -897,6 +903,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +953,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.4296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.36328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -958,1665 +972,1665 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-client-registry-address.xlsx
+++ b/StructureDefinition-bc-client-registry-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:28:52+00:00</t>
+    <t>2021-11-17T22:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
